--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_22_10.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_22_10.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1070825.450559227</v>
+        <v>-1073381.766386477</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12574568.46673313</v>
+        <v>12574568.46673314</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -659,13 +659,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,22 +707,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>225.725045014578</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>304.8949957201356</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -823,19 +823,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>10.36956942672018</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>51.2858671016655</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -874,10 +874,10 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -902,10 +902,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>306.8410109668712</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>125.1638583529911</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1051,28 +1051,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>122.6505573236909</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,22 +1099,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>138.9851535298229</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1142,10 +1142,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>69.91821722819765</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1184,16 +1184,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>181.9348232923727</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1227,10 +1227,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1306,10 +1306,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>127.614221624204</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,19 +1336,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>188.1473147541183</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1433,7 +1433,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784694</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1528,7 +1528,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>41.74133133758761</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1543,10 +1543,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>51.36569740310337</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1673,7 +1673,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.237938656054</v>
       </c>
     </row>
     <row r="15">
@@ -1765,10 +1765,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>1.207068174442234</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>101.3999237630408</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1783,7 +1783,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1825,13 +1825,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365933</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1844,7 +1844,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710083</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2005,13 +2005,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>77.93612009725524</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>123.797182079703</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2147,7 +2147,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2242,19 +2242,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2302,10 +2302,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>93.02868377804606</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2476,25 +2476,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>38.7654355248925</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>161.355549430153</v>
       </c>
     </row>
     <row r="26">
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2615,7 +2615,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2710,25 +2710,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>81.27859867330056</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2959,16 +2959,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>21.90286287505374</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3190,7 +3190,7 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E34" t="n">
         <v>122.1493151545295</v>
@@ -3205,7 +3205,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652609</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808248</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
@@ -3281,7 +3281,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3424,25 +3424,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E37" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308918</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H37" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652585</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808199</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
@@ -3478,7 +3478,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U37" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972045</v>
       </c>
       <c r="V37" t="n">
         <v>227.8529958317883</v>
@@ -3487,7 +3487,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y37" t="n">
         <v>194.3000058600551</v>
@@ -3506,7 +3506,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3566,7 +3566,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3661,10 +3661,10 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D40" t="n">
-        <v>124.330825526173</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E40" t="n">
         <v>122.1493151545295</v>
@@ -3673,7 +3673,7 @@
         <v>121.1364005308915</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H40" t="n">
         <v>116.0100653541842</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
@@ -3724,7 +3724,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y40" t="n">
         <v>194.3000058600551</v>
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3913,10 +3913,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C46" t="n">
         <v>142.9621736065881</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652577</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808192</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S46" t="n">
-        <v>156.7416385096048</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
         <v>193.1208028352485</v>
@@ -4192,16 +4192,16 @@
         <v>261.8998268972044</v>
       </c>
       <c r="V46" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y46" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1278.358723975039</v>
+        <v>1303.529887077737</v>
       </c>
       <c r="C2" t="n">
-        <v>1278.358723975039</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="D2" t="n">
-        <v>1278.358723975039</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="E2" t="n">
-        <v>892.5704713767946</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F2" t="n">
-        <v>481.5845665871869</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G2" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U2" t="n">
-        <v>3009.337405520488</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="V2" t="n">
-        <v>2781.332309546166</v>
+        <v>2741.012457539437</v>
       </c>
       <c r="W2" t="n">
-        <v>2428.563654276052</v>
+        <v>2388.243802269323</v>
       </c>
       <c r="X2" t="n">
-        <v>2055.097896014972</v>
+        <v>2080.269059117671</v>
       </c>
       <c r="Y2" t="n">
-        <v>1664.958564039161</v>
+        <v>1690.129727141859</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275811</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.70869461456</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635989</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686077</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064751</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080122</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986299</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291642</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513958</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068413</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486468</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962571</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201686</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695166</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507437</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.07176934196</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577006</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>945.3964936596652</v>
+        <v>542.929198822579</v>
       </c>
       <c r="C4" t="n">
-        <v>776.4603107317583</v>
+        <v>373.9930158946721</v>
       </c>
       <c r="D4" t="n">
-        <v>626.3436713194226</v>
+        <v>223.8763764823364</v>
       </c>
       <c r="E4" t="n">
-        <v>478.4305777370295</v>
+        <v>223.8763764823364</v>
       </c>
       <c r="F4" t="n">
-        <v>331.5406302391191</v>
+        <v>76.98642898442604</v>
       </c>
       <c r="G4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
@@ -4498,40 +4498,40 @@
         <v>799.6142115756892</v>
       </c>
       <c r="N4" t="n">
-        <v>1107.914056430635</v>
+        <v>1107.914056430626</v>
       </c>
       <c r="O4" t="n">
-        <v>1407.243655351049</v>
+        <v>1407.243655351039</v>
       </c>
       <c r="P4" t="n">
-        <v>1639.851155784708</v>
+        <v>1639.851155784699</v>
       </c>
       <c r="Q4" t="n">
-        <v>1717.461451937223</v>
+        <v>1717.461451937214</v>
       </c>
       <c r="R4" t="n">
-        <v>1627.630994694751</v>
+        <v>1717.461451937214</v>
       </c>
       <c r="S4" t="n">
-        <v>1575.827088531452</v>
+        <v>1717.461451937214</v>
       </c>
       <c r="T4" t="n">
-        <v>1575.827088531452</v>
+        <v>1717.461451937214</v>
       </c>
       <c r="U4" t="n">
-        <v>1575.827088531452</v>
+        <v>1717.461451937214</v>
       </c>
       <c r="V4" t="n">
-        <v>1575.827088531452</v>
+        <v>1462.776963731327</v>
       </c>
       <c r="W4" t="n">
-        <v>1575.827088531452</v>
+        <v>1173.359793694366</v>
       </c>
       <c r="X4" t="n">
-        <v>1347.837537633435</v>
+        <v>945.3702427963489</v>
       </c>
       <c r="Y4" t="n">
-        <v>1127.044958489905</v>
+        <v>724.5776636528187</v>
       </c>
     </row>
     <row r="5">
@@ -4541,16 +4541,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1959.379186075721</v>
+        <v>2244.121949002409</v>
       </c>
       <c r="C5" t="n">
-        <v>1590.416669135309</v>
+        <v>1875.159432061997</v>
       </c>
       <c r="D5" t="n">
-        <v>1232.150970528558</v>
+        <v>1516.893733455247</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>1131.105480857003</v>
       </c>
       <c r="F5" t="n">
         <v>821.1650657389509</v>
@@ -4562,55 +4562,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>3088.887013385769</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V5" t="n">
-        <v>3088.887013385769</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W5" t="n">
-        <v>2736.118358115654</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="X5" t="n">
-        <v>2736.118358115654</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="Y5" t="n">
-        <v>2345.979026139843</v>
+        <v>2630.721789066531</v>
       </c>
     </row>
     <row r="6">
@@ -4638,10 +4638,10 @@
         <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
         <v>160.1893859228007</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>607.0615673062264</v>
+        <v>652.2346852641118</v>
       </c>
       <c r="C7" t="n">
-        <v>607.0615673062264</v>
+        <v>652.2346852641118</v>
       </c>
       <c r="D7" t="n">
-        <v>456.9449278938906</v>
+        <v>652.2346852641118</v>
       </c>
       <c r="E7" t="n">
-        <v>456.9449278938906</v>
+        <v>504.3215916817187</v>
       </c>
       <c r="F7" t="n">
-        <v>310.0549803959803</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
         <v>111.6347488791189</v>
@@ -4747,28 +4747,28 @@
         <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S7" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1735.608663915319</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1446.505797040962</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V7" t="n">
-        <v>1306.116753071444</v>
+        <v>880.2242361621292</v>
       </c>
       <c r="W7" t="n">
-        <v>1016.699583034483</v>
+        <v>880.2242361621292</v>
       </c>
       <c r="X7" t="n">
-        <v>788.7100321364661</v>
+        <v>652.2346852641118</v>
       </c>
       <c r="Y7" t="n">
-        <v>788.7100321364661</v>
+        <v>652.2346852641118</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1661.138951213862</v>
+        <v>1197.506131441393</v>
       </c>
       <c r="C8" t="n">
-        <v>1292.17643427345</v>
+        <v>828.5436145009811</v>
       </c>
       <c r="D8" t="n">
-        <v>933.9107356666996</v>
+        <v>470.2779158942306</v>
       </c>
       <c r="E8" t="n">
-        <v>548.1224830684553</v>
+        <v>84.48966329598635</v>
       </c>
       <c r="F8" t="n">
-        <v>137.1365782788477</v>
+        <v>77.54416254678287</v>
       </c>
       <c r="G8" t="n">
         <v>66.51211643218342</v>
@@ -4802,19 +4802,19 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
@@ -4832,22 +4832,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>3031.542604356091</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450753</v>
+        <v>2700.479717012521</v>
       </c>
       <c r="W8" t="n">
-        <v>2424.744041450753</v>
+        <v>2347.711061742406</v>
       </c>
       <c r="X8" t="n">
-        <v>2051.278283189673</v>
+        <v>1974.245303481326</v>
       </c>
       <c r="Y8" t="n">
-        <v>1661.138951213862</v>
+        <v>1584.105971505515</v>
       </c>
     </row>
     <row r="9">
@@ -4872,22 +4872,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228005</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158129</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4936,40 +4936,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>776.270014830799</v>
+        <v>527.322087337517</v>
       </c>
       <c r="C10" t="n">
-        <v>607.3338319028921</v>
+        <v>527.322087337517</v>
       </c>
       <c r="D10" t="n">
-        <v>607.3338319028921</v>
+        <v>527.322087337517</v>
       </c>
       <c r="E10" t="n">
-        <v>607.3338319028921</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F10" t="n">
-        <v>460.4438844049818</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G10" t="n">
-        <v>292.7410477797007</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4981,31 +4981,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1837.46409084602</v>
+        <v>1737.246755407565</v>
       </c>
       <c r="T10" t="n">
-        <v>1837.46409084602</v>
+        <v>1515.480139977091</v>
       </c>
       <c r="U10" t="n">
-        <v>1548.361223971664</v>
+        <v>1226.377273102735</v>
       </c>
       <c r="V10" t="n">
-        <v>1293.676735765777</v>
+        <v>1226.377273102735</v>
       </c>
       <c r="W10" t="n">
-        <v>1004.259565728816</v>
+        <v>936.9601030657741</v>
       </c>
       <c r="X10" t="n">
-        <v>776.270014830799</v>
+        <v>708.9705521677568</v>
       </c>
       <c r="Y10" t="n">
-        <v>776.270014830799</v>
+        <v>708.9705521677568</v>
       </c>
     </row>
     <row r="11">
@@ -5033,46 +5033,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,28 +5112,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>931.4710609784063</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C13" t="n">
-        <v>762.5348780504994</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D13" t="n">
-        <v>612.4182386381636</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E13" t="n">
-        <v>464.5051450557705</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2395.078540748843</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2395.078540748843</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>2395.078540748843</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>2106.003314093041</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1851.318825887154</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1561.901655850193</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>1333.912104952176</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y13" t="n">
-        <v>1113.119525808646</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="14">
@@ -5267,58 +5267,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075796</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,28 +5349,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>763.7541388327643</v>
+        <v>801.6918836311971</v>
       </c>
       <c r="C16" t="n">
-        <v>762.5348780504994</v>
+        <v>632.7557007032902</v>
       </c>
       <c r="D16" t="n">
-        <v>612.4182386381636</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E16" t="n">
-        <v>464.5051450557705</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F16" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>2227.361618603201</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1938.286391947399</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1683.601903741512</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1394.184733704551</v>
+        <v>1211.329899359454</v>
       </c>
       <c r="X16" t="n">
-        <v>1166.195182806534</v>
+        <v>983.3403484614369</v>
       </c>
       <c r="Y16" t="n">
-        <v>945.402603663004</v>
+        <v>983.3403484614369</v>
       </c>
     </row>
     <row r="17">
@@ -5489,10 +5489,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5507,58 +5507,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="18">
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>800.5007694647277</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>631.5645865368208</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D19" t="n">
-        <v>481.447947124485</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E19" t="n">
-        <v>481.447947124485</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T19" t="n">
-        <v>2264.108249235165</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U19" t="n">
-        <v>1975.033022579363</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V19" t="n">
-        <v>1720.348534373476</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>1430.931364336515</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>1202.941813438498</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>982.1492342949674</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5747,13 +5747,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5762,16 +5762,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5826,28 +5826,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>221.3431781811722</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>716.6687843969308</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>868.6673633290469</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>699.73118040114</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D22" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E22" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5908,52 +5908,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>1144.284195611858</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>1050.315828159287</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5963,34 +5963,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -5999,16 +5999,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6020,19 +6020,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6066,19 +6066,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>280.8495004245706</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>801.6918836311989</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>801.6918836311989</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D25" t="n">
-        <v>651.5752442188632</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E25" t="n">
-        <v>503.6621506364701</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F25" t="n">
-        <v>356.7722031385597</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>983.3403484614387</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6212,34 +6212,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6263,10 +6263,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6300,25 +6300,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>409.1360811687896</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>904.4616873845483</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1501.8401750111</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2129.438138565707</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>762.5477693179085</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>680.448174698413</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D28" t="n">
-        <v>530.3315352860773</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E28" t="n">
-        <v>382.4184417036842</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F28" t="n">
-        <v>235.5284942057738</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6382,52 +6382,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6458,10 +6458,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
@@ -6479,10 +6479,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2148.04349261611</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F31" t="n">
-        <v>198.027470314254</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6686,34 +6686,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6774,22 +6774,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150027</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942658</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580117</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345479</v>
       </c>
       <c r="H34" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384023</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6859,10 +6859,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6880,19 +6880,19 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T34" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W34" t="n">
         <v>1483.798285518751</v>
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>2299.457522348532</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2299.457522348532</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656822</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150027</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942658</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G37" t="n">
         <v>268.5553036345476</v>
       </c>
       <c r="H37" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384021</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J37" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7120,7 +7120,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T37" t="n">
         <v>2243.385329532432</v>
@@ -7169,25 +7169,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7214,7 +7214,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7248,22 +7248,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7306,43 +7306,43 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656822</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345473</v>
       </c>
       <c r="H40" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384017</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380723</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311318</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
       </c>
       <c r="N40" t="n">
-        <v>1785.769117656414</v>
+        <v>1785.769117656413</v>
       </c>
       <c r="O40" t="n">
         <v>2179.340199382518</v>
@@ -7354,10 +7354,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
         <v>2243.385329532432</v>
@@ -7366,7 +7366,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W40" t="n">
         <v>1483.798285518751</v>
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,25 +7406,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7485,22 +7485,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7543,34 +7543,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H43" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954149</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L43" t="n">
         <v>898.2659412311323</v>
@@ -7582,19 +7582,19 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
@@ -7637,10 +7637,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
         <v>95.34095638192593</v>
@@ -7725,28 +7725,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1318.79311422913</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319329</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656815</v>
+        <v>782.5512955656823</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150029</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942654</v>
+        <v>533.581456494266</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580113</v>
+        <v>411.221455958012</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345482</v>
       </c>
       <c r="H46" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7837,16 +7837,16 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W46" t="n">
         <v>1483.798285518751</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y46" t="n">
         <v>1084.076049400516</v>
@@ -8146,7 +8146,7 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>138.3747553788873</v>
+        <v>138.3747553788781</v>
       </c>
       <c r="O4" t="n">
         <v>163.0416663658825</v>
@@ -22547,13 +22547,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -22565,7 +22565,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,22 +22595,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>102.0272134555569</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>64.83610495833346</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22711,19 +22711,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>155.656238832308</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22750,10 +22750,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>138.4831582297764</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
@@ -22762,10 +22762,10 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -23312,7 +23312,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23416,7 +23416,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>125.5054897610402</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23431,10 +23431,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>15.00954930701832</v>
+        <v>66.37524671012035</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23653,10 +23653,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>166.0397529241856</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>47.21554925517151</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23893,13 +23893,13 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>67.484927925676</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23908,7 +23908,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>57.22910392194156</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24190,10 +24190,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>125.5559695740487</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24364,25 +24364,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>126.7587027673763</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>57.22910392194177</v>
       </c>
     </row>
     <row r="26">
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>85.96822242532727</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24847,16 +24847,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>143.6212754172151</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>-3.501643547353501e-13</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25321,7 +25321,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>-3.126388037344441e-13</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25552,7 +25552,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>-3.836930773104541e-13</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>169252.1408943217</v>
+        <v>169252.1408943218</v>
       </c>
       <c r="C2" t="n">
         <v>205260.4424660708</v>
@@ -26320,16 +26320,16 @@
         <v>205260.4424660708</v>
       </c>
       <c r="E2" t="n">
-        <v>201786.6499225016</v>
+        <v>201786.6499225015</v>
       </c>
       <c r="F2" t="n">
-        <v>201786.6499225016</v>
+        <v>201786.6499225015</v>
       </c>
       <c r="G2" t="n">
         <v>201786.6499225015</v>
       </c>
       <c r="H2" t="n">
-        <v>201786.6499225014</v>
+        <v>201786.6499225016</v>
       </c>
       <c r="I2" t="n">
         <v>201786.6499225016</v>
@@ -26344,10 +26344,10 @@
         <v>205260.4424660712</v>
       </c>
       <c r="M2" t="n">
-        <v>205260.4424660712</v>
+        <v>205260.4424660711</v>
       </c>
       <c r="N2" t="n">
-        <v>205260.4424660713</v>
+        <v>205260.4424660708</v>
       </c>
       <c r="O2" t="n">
         <v>205260.4424660708</v>
@@ -26369,10 +26369,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073554</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,7 +26381,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.574418839027077e-11</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26393,10 +26393,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>19427.71799363177</v>
+        <v>19427.71799363176</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551193</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>11234.60594742186</v>
+        <v>11234.60594742174</v>
       </c>
       <c r="C4" t="n">
-        <v>93403.78684820642</v>
+        <v>93403.78684820639</v>
       </c>
       <c r="D4" t="n">
         <v>93403.78684820635</v>
@@ -26427,37 +26427,37 @@
         <v>14216.75207685505</v>
       </c>
       <c r="F4" t="n">
+        <v>14216.752076855</v>
+      </c>
+      <c r="G4" t="n">
+        <v>14216.75207685502</v>
+      </c>
+      <c r="H4" t="n">
         <v>14216.75207685505</v>
       </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
+        <v>14216.75207685503</v>
+      </c>
+      <c r="J4" t="n">
         <v>14216.75207685505</v>
       </c>
-      <c r="H4" t="n">
-        <v>14216.75207685507</v>
-      </c>
-      <c r="I4" t="n">
+      <c r="K4" t="n">
         <v>14216.75207685505</v>
-      </c>
-      <c r="J4" t="n">
-        <v>14216.75207685506</v>
-      </c>
-      <c r="K4" t="n">
-        <v>14216.75207685506</v>
       </c>
       <c r="L4" t="n">
         <v>22207.61133994851</v>
       </c>
       <c r="M4" t="n">
-        <v>22207.61133994851</v>
+        <v>22207.61133994849</v>
       </c>
       <c r="N4" t="n">
         <v>22207.61133994853</v>
       </c>
       <c r="O4" t="n">
-        <v>22207.61133994853</v>
+        <v>22207.61133994851</v>
       </c>
       <c r="P4" t="n">
-        <v>22207.61133994853</v>
+        <v>22207.61133994852</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1278661.151342086</v>
+        <v>-1279021.234357803</v>
       </c>
       <c r="C6" t="n">
-        <v>3922.715056471294</v>
+        <v>3922.715056471279</v>
       </c>
       <c r="D6" t="n">
-        <v>3922.715056471119</v>
+        <v>3922.71505647093</v>
       </c>
       <c r="E6" t="n">
-        <v>-238965.0937856159</v>
+        <v>-238999.8317110518</v>
       </c>
       <c r="F6" t="n">
-        <v>86447.3680217394</v>
+        <v>86412.63009630375</v>
       </c>
       <c r="G6" t="n">
-        <v>86447.36802173931</v>
+        <v>86412.63009630369</v>
       </c>
       <c r="H6" t="n">
-        <v>86447.36802173925</v>
+        <v>86412.63009630368</v>
       </c>
       <c r="I6" t="n">
-        <v>86447.3680217394</v>
+        <v>86412.63009630374</v>
       </c>
       <c r="J6" t="n">
-        <v>-131083.834375538</v>
+        <v>-131118.5723009738</v>
       </c>
       <c r="K6" t="n">
-        <v>86447.36802173931</v>
+        <v>86412.63009630368</v>
       </c>
       <c r="L6" t="n">
         <v>60460.99727857555</v>
       </c>
       <c r="M6" t="n">
-        <v>-5166.312663304532</v>
+        <v>-5166.31266330478</v>
       </c>
       <c r="N6" t="n">
-        <v>79888.71527220734</v>
+        <v>79888.71527220687</v>
       </c>
       <c r="O6" t="n">
         <v>79888.7152722069</v>
       </c>
       <c r="P6" t="n">
-        <v>79888.71527220699</v>
+        <v>79888.71527220713</v>
       </c>
     </row>
   </sheetData>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O2" t="n">
         <v>24.28464749203971</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="3">
@@ -26787,22 +26787,22 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>831.4014554022929</v>
+      </c>
+      <c r="C4" t="n">
         <v>831.4014554022926</v>
       </c>
-      <c r="C4" t="n">
-        <v>831.4014554022924</v>
-      </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26820,7 +26820,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26923,7 +26923,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26963,7 +26963,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
         <v>278.1987997483757</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27160,7 +27160,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27622,10 +27622,10 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>100.0350347748402</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27670,19 +27670,19 @@
         <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
-        <v>125.8313136059109</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,28 +27771,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>22.77049069924031</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,22 +27819,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>113.1524897940051</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27862,16 +27862,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>341.0035084252558</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,16 +27904,16 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>69.06034866652925</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28026,10 +28026,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>17.14079329011679</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,19 +28056,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>1.621710577323569</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28153,7 +28153,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -28293,7 +28293,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>1.319714707885093e-12</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -28564,7 +28564,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>-7.71678812803845e-13</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -28867,7 +28867,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -29335,7 +29335,7 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -29509,7 +29509,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
     </row>
     <row r="38">
@@ -30226,7 +30226,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -30286,7 +30286,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="41">
@@ -30514,7 +30514,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
   </sheetData>
@@ -31513,43 +31513,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31598,40 +31598,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,13 +31671,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31686,16 +31686,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31704,16 +31704,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,34 +31829,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31865,13 +31865,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,34 +32066,34 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32102,13 +32102,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>285.8867128925984</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>264.8708611242914</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162566</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,31 +32777,31 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32813,13 +32813,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,34 +33014,34 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>456.3459017226598</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33050,13 +33050,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>270.4557004614713</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,31 +33488,31 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33524,13 +33524,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
         <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>359.1374415194863</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33892,34 +33892,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663268</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,31 +33962,31 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -33998,13 +33998,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,31 +34199,31 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34235,13 +34235,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34445,13 +34445,13 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34460,16 +34460,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34866,7 +34866,7 @@
         <v>169.1237184840382</v>
       </c>
       <c r="N4" t="n">
-        <v>311.4139847019656</v>
+        <v>311.4139847019564</v>
       </c>
       <c r="O4" t="n">
         <v>302.3531302226398</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,10 +35328,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35343,13 +35343,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,28 +35483,28 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>261.3487819164541</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,28 +35720,28 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>151.9123054782682</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,31 +36194,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>127.0294221499325</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462693</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,22 +36434,22 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,28 +36668,28 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>318.5044627483008</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>136.4812930471411</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37151,16 +37151,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37227,25 +37227,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L34" t="n">
         <v>418.6266618111712</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N34" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P34" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37388,25 +37388,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>219.1556674334648</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37464,7 +37464,7 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L37" t="n">
         <v>418.6266618111712</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37625,16 +37625,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37701,25 +37701,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L40" t="n">
         <v>418.6266618111712</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N40" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37862,16 +37862,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37938,25 +37938,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N43" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P43" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38093,13 +38093,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38108,16 +38108,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38175,19 +38175,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N46" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
